--- a/Assets/Dev/Data/Stat/Resources/Data/StatTable.xlsx
+++ b/Assets/Dev/Data/Stat/Resources/Data/StatTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\Github\Prototype-Project\Assets\Dev\Data\Stat\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF7EA61-909A-4416-9039-3744DD1B5D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stat_Master" sheetId="1" r:id="rId1"/>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -246,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -484,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -575,7 +576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1146,7 +1147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1592,7 +1593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2278,7 +2279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2465,7 +2466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2844,7 +2845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -3146,7 +3147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -3467,7 +3468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -3682,7 +3683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -3973,7 +3974,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -4341,7 +4342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -4484,12 +4485,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -4657,7 +4658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -4895,7 +4896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -4986,7 +4987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -5241,7 +5242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -6004,7 +6005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -6603,7 +6604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -7367,7 +7368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -7966,7 +7967,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -8346,7 +8347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -8657,7 +8658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -8948,7 +8949,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -9316,7 +9317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -9459,12 +9460,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -9587,7 +9588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -9967,7 +9968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -10039,7 +10040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -10212,12 +10213,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -10320,7 +10321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -10489,7 +10490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -10838,19 +10839,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -10859,7 +10860,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -10888,7 +10889,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -10896,7 +10897,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -10904,7 +10905,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -10913,7 +10914,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -11248,37 +11249,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -11331,7 +11332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -11384,7 +11385,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -11437,7 +11438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -11490,7 +11491,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -11543,7 +11544,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -11596,7 +11597,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -11649,7 +11650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -11711,32 +11712,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -11783,7 +11784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="4">
         <v>101</v>
       </c>
@@ -11830,7 +11831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="4">
         <v>102</v>
       </c>
@@ -11877,7 +11878,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="4">
         <v>103</v>
       </c>
@@ -11924,7 +11925,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="4">
         <v>104</v>
       </c>
@@ -11980,24 +11981,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -12023,7 +12024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
         <v>101</v>
       </c>
@@ -12049,7 +12050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>102</v>
       </c>
@@ -12075,7 +12076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>103</v>
       </c>
@@ -12109,22 +12110,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -12144,7 +12145,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="4">
         <v>1001</v>
       </c>

--- a/Assets/Dev/Data/Stat/Resources/Data/StatTable.xlsx
+++ b/Assets/Dev/Data/Stat/Resources/Data/StatTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development\Github\Prototype-Project\Assets\Dev\Data\Stat\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Prototype-Project\Assets\Dev\Data\Stat\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF7EA61-909A-4416-9039-3744DD1B5D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21100"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stat_Master" sheetId="1" r:id="rId1"/>
@@ -28,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -485,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -576,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1147,7 +1146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1593,7 +1592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2279,7 +2278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2466,7 +2465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2845,7 +2844,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3147,7 +3146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3468,7 +3467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3683,7 +3682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3974,7 +3973,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4342,7 +4341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4485,12 +4484,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4658,7 +4657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4896,7 +4895,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4987,7 +4986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5242,7 +5241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6005,7 +6004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6604,7 +6603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7368,7 +7367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7967,7 +7966,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8347,7 +8346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8658,7 +8657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8949,7 +8948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -9317,7 +9316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -9460,12 +9459,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -9588,7 +9587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -9968,7 +9967,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -10040,7 +10039,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -10213,12 +10212,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -10321,7 +10320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -10490,7 +10489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -10839,19 +10838,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -10860,7 +10859,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -10889,7 +10888,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -10897,7 +10896,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -10905,7 +10904,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -10914,7 +10913,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -11249,37 +11248,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.4140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.4140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.4140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -11332,7 +11331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -11343,7 +11342,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -11385,7 +11384,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -11438,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -11491,7 +11490,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -11502,7 +11501,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
@@ -11544,7 +11543,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -11597,7 +11596,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -11650,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -11706,38 +11705,38 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.75" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.75" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -11784,7 +11783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>101</v>
       </c>
@@ -11831,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>102</v>
       </c>
@@ -11878,7 +11877,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>103</v>
       </c>
@@ -11925,7 +11924,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>104</v>
       </c>
@@ -11981,24 +11980,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.4140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -12024,7 +12023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>101</v>
       </c>
@@ -12050,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>102</v>
       </c>
@@ -12076,7 +12075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>103</v>
       </c>
@@ -12110,22 +12109,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -12145,7 +12144,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>1001</v>
       </c>
